--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_174.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_174.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(9.74, 27.08)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.82, 8.62)]</t>
+          <t>[('0:00:08.300000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1136044880785414</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:02.360000', '0:00:05.680000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.425</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:maj', 'G', 'C/5', 'G', 'C/5', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.5, 5.58)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[('0:00:57.406099', '0:01:08.064058')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:35.197913', '0:00:52.299410')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:03.100000', '0:00:05.580000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[('0:00:18.660000', '0:00:21.280000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.880000', '0:00:12.780000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.06, 123.26)]</t>
+          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:55.840000', '0:01:05.040000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.2, 18.84)]</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
-        </is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4588235294117647</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'G:min/A#', 'C:maj']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.56, 11.22)]</t>
+          <t>[('0:00:03.599751', '0:00:07.761836')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:min', 'B'], ['A', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'F#'], ['E', 'E', 'B/3']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(35.172993, 42.127369), (16.585419, 21.24102)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(71.384512, 77.839659), (4.383333, 11.07068)]</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4307692307692308</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.94, 65.78)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(43.68, 45.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.36, 7.14)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
